--- a/опт и Краснодар/2023/10,23/31,10,23 Кр_РнД_Сч ЗПФ/дв 31,10,23 счрсч зпф НЕТ.xlsx
+++ b/опт и Краснодар/2023/10,23/31,10,23 Кр_РнД_Сч ЗПФ/дв 31,10,23 счрсч зпф НЕТ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\31,10,23 Кр_РнД_Сч ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2023\10,23\31,10,23 Кр_РнД_Сч ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7145B133-38A5-4D9D-A881-AA9981DDD90F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BB7F7D-5F37-4EE6-A4AC-108722170684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,8 +248,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="167" formatCode="0.0_ ;[Red]\-0.0\ "/>
+    <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="165" formatCode="0.0_ ;[Red]\-0.0\ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -259,10 +259,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -401,58 +405,58 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
@@ -2976,8 +2980,8 @@
   <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y14" sqref="Y14"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -3661,7 +3665,7 @@
         <v>22.4</v>
       </c>
       <c r="M16" s="22">
-        <f t="shared" ref="M7:M47" si="6">13*L16-F16</f>
+        <f t="shared" ref="M16:M44" si="6">13*L16-F16</f>
         <v>30.199999999999989</v>
       </c>
       <c r="N16" s="22"/>
